--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3239.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3239.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.535522744704243</v>
+        <v>1.246613025665283</v>
       </c>
       <c r="B1">
-        <v>2.576983270669041</v>
+        <v>1.138303637504578</v>
       </c>
       <c r="C1">
-        <v>3.059863098234991</v>
+        <v>0.9702181220054626</v>
       </c>
       <c r="D1">
-        <v>3.63055933266206</v>
+        <v>1.021341323852539</v>
       </c>
       <c r="E1">
-        <v>1.946346000924293</v>
+        <v>1.003981351852417</v>
       </c>
     </row>
   </sheetData>
